--- a/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-018 Formato Matriz Plan de Acciones.xlsx
+++ b/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-018 Formato Matriz Plan de Acciones.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjCvKiZkLHYLaInnkAOoUOVbBJmCA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgTm/PWCUwBKcXTyQRwzy/YpVL1Nw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>MATRIZ PLAN DE ACCIONES</t>
   </si>
@@ -84,24 +84,12 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
-  <si>
-    <t>Fecha de aprobación</t>
-  </si>
-  <si>
-    <t>Aprobó:</t>
-  </si>
-  <si>
-    <t>Control Interno</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -152,17 +140,6 @@
       <sz val="8.0"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -184,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="27">
     <border/>
     <border>
       <left/>
@@ -446,48 +423,6 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -498,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -652,17 +587,6 @@
     </xf>
     <xf borderId="26" fillId="2" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,9 +816,7 @@
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="23"/>
-      <c r="B6" s="29">
-        <v>1.0</v>
-      </c>
+      <c r="B6" s="29"/>
       <c r="C6" s="30"/>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
@@ -906,9 +828,7 @@
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="23"/>
-      <c r="B7" s="36">
-        <v>2.0</v>
-      </c>
+      <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="37"/>
@@ -920,9 +840,7 @@
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="36">
-        <v>3.0</v>
-      </c>
+      <c r="B8" s="36"/>
       <c r="C8" s="37"/>
       <c r="D8" s="42"/>
       <c r="E8" s="43"/>
@@ -934,9 +852,7 @@
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="36">
-        <v>4.0</v>
-      </c>
+      <c r="B9" s="36"/>
       <c r="C9" s="37"/>
       <c r="D9" s="42"/>
       <c r="E9" s="43"/>
@@ -948,9 +864,7 @@
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="36">
-        <v>5.0</v>
-      </c>
+      <c r="B10" s="36"/>
       <c r="C10" s="37"/>
       <c r="D10" s="42"/>
       <c r="E10" s="37"/>
@@ -962,9 +876,7 @@
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="36">
-        <v>6.0</v>
-      </c>
+      <c r="B11" s="36"/>
       <c r="C11" s="37" t="s">
         <v>16</v>
       </c>
@@ -988,9 +900,7 @@
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="36">
-        <v>7.0</v>
-      </c>
+      <c r="B12" s="36"/>
       <c r="C12" s="46"/>
       <c r="D12" s="42"/>
       <c r="E12" s="47"/>
@@ -1002,9 +912,7 @@
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="36">
-        <v>8.0</v>
-      </c>
+      <c r="B13" s="36"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42"/>
       <c r="E13" s="47"/>
@@ -1016,9 +924,7 @@
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="36">
-        <v>9.0</v>
-      </c>
+      <c r="B14" s="36"/>
       <c r="C14" s="46"/>
       <c r="D14" s="42"/>
       <c r="E14" s="47"/>
@@ -1030,9 +936,7 @@
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="49">
-        <v>10.0</v>
-      </c>
+      <c r="B15" s="49"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
@@ -1042,43 +946,9 @@
       <c r="I15" s="55"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="57">
-        <v>43374.0</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
     <mergeCell ref="C3:F4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
